--- a/biology/Botanique/Jacques_Rousseau_(botaniste)/Jacques_Rousseau_(botaniste).xlsx
+++ b/biology/Botanique/Jacques_Rousseau_(botaniste)/Jacques_Rousseau_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Rousseau (Saint-Lambert, 5 octobre 1905 – Montréal, 4 août 1970), est un botaniste et ethnologue québécois du XXe siècle.
 </t>
@@ -511,15 +523,17 @@
           <t>Parcours professionnel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À partir de 1923, Jacques Rousseau suit les cours du frère Marie-Victorin et participe à ses explorations botaniques dans la province du Québec pour devenir son assistant. Il obtient une licence en sciences biologiques, avec une spécialisation en botanique et ethnologie en 1928 et commence à enseigner à l'université de Montréal en tant que professeur de botanique.
 Ensuite, il entreprend de multiples explorations en Amérique du Nord et découvre plus de cent espèces nouvelles comme l'astragale. Il étudie la toundra et fait l'une des premières études canadiennes sur le périglaciaire. Ces études dans le nord du Canada l'amènent vers des travaux d'ethnologue ; il s'intéresse alors aux Autochtones et aux Inuits.
-Il participe aux premières années de développement de l'Association canadienne-française pour l’avancement des sciences (Acfas) ; il en est le secrétaire de 1930 à 1946[1], mais surtout il est reconnu pour être l'initiateur du congrès annuel de l'Acfas, dont la première édition se tiendra à l'automne 1933[2], à l'Université de Montréal. 
+Il participe aux premières années de développement de l'Association canadienne-française pour l’avancement des sciences (Acfas) ; il en est le secrétaire de 1930 à 1946, mais surtout il est reconnu pour être l'initiateur du congrès annuel de l'Acfas, dont la première édition se tiendra à l'automne 1933, à l'Université de Montréal. 
 Il participe aussi à la création, avec le frère Marie-Victorin, du Jardin botanique de Montréal et en est le directeur de 1944 à 1957. Il est le directeur du Musée de l'Homme à Ottawa de 1956 à 1959.
 En 1959, il rejoint le Centre d'études arctiques et finno-scandinaves de La Sorbonne à Paris. Il y devient professeur titulaire et collabore notamment avec le géographe Jean Malaurie.
 En 1962, il est nommé directeur de la recherche au Centre d'études nordiques de l'université Laval de Québec, poste qu'il occupera jusqu'à sa mort. Il reçoit de nombreuses récompenses pour tous ses travaux.
-Au Congrès de l'Acfas de 1970, qui s'est tenu à l'Université Laval les 16 et 17 octobre, un hommage fut rendu à Jacques Rousseau[3], initiateur de cet événement qui se tient annuellement depuis 1933.
+Au Congrès de l'Acfas de 1970, qui s'est tenu à l'Université Laval les 16 et 17 octobre, un hommage fut rendu à Jacques Rousseau, initiateur de cet événement qui se tient annuellement depuis 1933.
 </t>
         </is>
       </c>
